--- a/CCFN-A002-A01.03 REGRESAR BOLETINES DE REMISION Y ENTRADA FACTURA DESPUES DEL INGRESO AL SISTEMA/CCFN-A002-A01.03-F010-R00 CASOS DE PRUEBA.xlsx
+++ b/CCFN-A002-A01.03 REGRESAR BOLETINES DE REMISION Y ENTRADA FACTURA DESPUES DEL INGRESO AL SISTEMA/CCFN-A002-A01.03-F010-R00 CASOS DE PRUEBA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\CLAUDIA\PROYECTOS\002 REGRESAR BOLETINES DE REMISION Y ENTRADA FACTURA DESPUES DEL INGRESO AL SISTEMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\CLAUDIA\PROYECTOS\CERRADOS\CCFN-A002-A01.03 REGRESAR BOLETINES DE REMISION Y ENTRADA FACTURA DESPUES DEL INGRESO AL SISTEMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <r>
       <t xml:space="preserve">Revisión. </t>
@@ -168,12 +168,6 @@
     <t>NUMERO DE REVISIÓN</t>
   </si>
   <si>
-    <t>MODULO A PROBAR: COMPRAS</t>
-  </si>
-  <si>
-    <t>FECHA. 06/12/2016</t>
-  </si>
-  <si>
     <t>N/R</t>
   </si>
   <si>
@@ -274,12 +268,72 @@
       <t>CCFN-A002-A01/03-F010-R00</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FECHA. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06/12/2016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODULO A PROBAR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMPRAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PLATAFORMA. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOMBRE DEL PROYECTO. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regresar boletines de remicion y entrada factura despues del ingreso al sistema.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +386,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -502,15 +563,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,14 +602,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,41 +635,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,7 +1110,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,49 +1129,49 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="23"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="23"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1124,125 +1185,137 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="2:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="2:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="G15" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="31"/>
+      <c r="C15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="G15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="G17" s="30" t="s">
+      <c r="D17" s="25"/>
+      <c r="G17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="C16:D16"/>
@@ -1254,18 +1327,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1305,39 +1366,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="24"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="23"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="25"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
@@ -1350,32 +1411,32 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="22" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1388,9 +1449,9 @@
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1401,25 +1462,25 @@
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="34"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1452,60 +1513,60 @@
       <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="43" t="s">
+      <c r="B10" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="21">
+        <v>42502</v>
+      </c>
+      <c r="G10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44">
-        <v>42502</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="43"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="41"/>
       <c r="K10" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R10" s="18"/>
       <c r="S10" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -1520,106 +1581,102 @@
       <c r="A12" s="18">
         <v>2</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="21">
+        <v>42502</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="43" t="s">
+      <c r="J12" s="41"/>
+      <c r="K12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44">
-        <v>42502</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R12" s="18"/>
       <c r="S12" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="13"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="13"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
@@ -1636,16 +1693,20 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>